--- a/results/I3_N5_M2_T45_C150_DepCentral_s2_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepCentral_s2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>579.5689819160032</v>
+        <v>407.7947713067539</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9570000171661377</v>
+        <v>0.9779999256134033</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.42908392284503</v>
+        <v>37.79477130675394</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.610042862199581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.569940855350567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>554.1800000000072</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -791,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -885,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.86548931250511</v>
+        <v>39.86548931250503</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>32.06306660986117</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>21.66522345830435</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.99312545677545</v>
+        <v>40.71676524108239</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41.48326856299774</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -975,90 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>5</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>154.9200000000493</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
@@ -1171,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>152.65</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
@@ -1182,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>157.9800000000444</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10">
@@ -1193,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>156.3850000000484</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -1204,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7900000000411</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12">
@@ -1215,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>111.2650000000031</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
@@ -1226,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6150000000029</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>116.6850000000042</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -1248,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>116.8750000000045</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
@@ -1259,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>115.9200000000128</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
@@ -1270,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>41.17000000003858</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
@@ -1281,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.71500000004791</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
@@ -1292,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>37.8600000000468</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
@@ -1303,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>47.65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21">
@@ -1314,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>45.31999999985041</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22">
@@ -1325,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>147.3399999999354</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23">
@@ -1336,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2049999999408</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24">
@@ -1347,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>140.4299999999473</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1358,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26">
@@ -1369,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9949999999371</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27">
@@ -1380,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>199.5749999998699</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28">
@@ -1391,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>203.5549999998768</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29">
@@ -1402,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>184.9550000000583</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -1413,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>203.4849999998867</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1424,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>203.7950000000477</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1435,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.9200000000482</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>152.65</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34">
@@ -1457,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>157.9800000000778</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35">
@@ -1468,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>156.3850000000822</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
@@ -1479,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>159.7900000000773</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37">
@@ -1490,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>199.5749999998644</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38">
@@ -1501,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>203.5549999998712</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39">
@@ -1512,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>184.9550000000732</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -1523,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>203.4849999998811</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41">
@@ -1534,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.7950000000428</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1581,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>4.920000000047878</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -1592,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.65</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -1603,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.980000000076586</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1614,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>6.385000000080424</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1625,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>9.790000000076077</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -1636,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>49.57499999986214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1647,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>53.55499999986847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1658,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>34.9550000000726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1669,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>53.4849999998784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1680,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>53.79500000004103</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1848,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1859,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1870,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1881,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1947,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1958,7 +1841,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1969,7 +1852,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -1980,7 +1863,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -1991,7 +1874,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,94 +1968,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
